--- a/500all/speech_level/speeches_CHRG-114hhrg93668.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93668.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. Good morning. The Committee on Oversight and Government Reform will come to order. And without objection, the chair is authorized to declare a recess at any time.    I am pleased to be holding this hearing today with Ranking Member Cummings. Reforming and restoring the United States Secret Service is not a partisan issue. I firmly believe that a united front with Mr. Cummings and I have presented have driven change within the agency. Together, we have sent letters to 10 closed-door meetings and briefings with the Secret Service and asked for change.    Just this morning, in a bipartisan way, we went and visited the Secret Service headquarters. And we appreciate their accommodations and the tour of the facility, the management facility there.    Today, the senior leadership of the Secret Service looks much different than it did when we began examining the agency. In fact, we originally planned to have both the Acting Director and the Deputy Director appear before us today on a second panel. But with the recent announcement of the Deputy Director's departure from the agency, we agreed to postpone the agency's appearance before the committee for another day.    We want to thank Acting Director Clancy and Secretary Jeh Johnson for being consistently available to us. They have been very accessible, and we are very appreciative of that. We also applaud Secretary Jeh Johnson for assembling a panel, which we will hear from today, to examine the Secret Service. The panel's report did not mince words, did not skirt the issues, and provided serious recommendations.    According to the panel's findings, the Secret Service ``is starved for leadership'' and lacks a ``culture of accountability.'' The panel recommended the next Secret Service Director appointed by the President come from outside the agency. The panel's report states--and I happen to agree--that ``at this time in the agency's history, the need for Secret Service experience is outweighed by what the Service needs today, dynamic leadership that can move the Service forward in the new era and drive change in the organization.'' The report goes on to say, ``Only a director from outside the Service, removed from organizational traditions and personal relationships, will be able to do the honest top-to-bottom reassessment,'' dealing with what is necessary inside the agency.    Alarmingly, the panel found that no one inside the Secret Service has ever taken time to sit down and figure out exactly what it costs to protect the President. In fact, the panel found, ``No one has really looked how much the mission done right actually costs.'' This is simply unacceptable. Combined with other limitations, like insufficient training, antiquated technology, and insular attitude, these factors have all contributed to the recent security breaches. The fact that the panel made these findings is not surprising. But I will tell you personally it is very refreshing to have a panel take such a deep, serious look into the agency and provide some very candid results and perspective. And he did it in a very swift manner. And for that, we are very, very thankful.    Over the past several years, a series of security breaches have raised a number of questions about the effectiveness of the agency. In 2011, a man fired a high-powered rifle at the White House while President Obama's daughter was inside the residence. The Secret Service was unable to confirm that shots had been fired at the White House until a housekeeper found broken glass 4 days later. This shooter eluded capture for 5 days, traveling all the way to Pennsylvania, where he was eventually apprehended by State police.    On September 19 of last year, with a partially amputated foot and a limp, wearing Crocs, a man was able to jump the White House fence. Contrary to initial reports from the Secret Service, this man made it all the way into the green room, armed with a 3-1/2 inch knife that was serrated.    The same month, an armed security contractor was allowed on an elevator with the President, unbeknownst to the Secret Service and in violation of protocol. We still don't know where the breakdown was that enabled this to happen.    Last month, a gunman fired shots near the Vice President's residence in Delaware. Security cameras were unable to capture video of the gunman. To this day, we still don't know who fired those shots. This was very close to active Secret Service agents at the residence.    Just 2 weeks ago, a drone crashed into a tree on the White House lawn, highlighting a security vulnerability that we must shore up immediately. By examining these security breaches, we can find out what went wrong and we can work together to fix it.    Together with Ranking Member Cummings, this committee has and will continue examining issues surrounding leadership, culture, budget, training, technology, and protocol. Congress needs to know why the Secret Service has one of the lowest levels of employee morale in all of Federal Government. We have some of the finest men and women serving in the Secret Service. These are wonderful, caring, patriotic, hardworking, talented people. We love these people. We thank them for their service. But the system, the bureaucracy, the leadership has been failing them, and it has to change. We have to get this right, and we have to get it right now.    The panel made a number of recommendations, but the main priority was clear. The first step to success within the Secret Service is new leadership from outside the agency. I look forward to discussing the panel's good work today and hearing how recommendations were developed. And now I would like to recognize the ranking member, Mr. Cummings, for his Statement.</t>
   </si>
   <si>
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. I thank you for agreeing to hold today's hearing and for working with us in a bipartisan way. And I also thank you for doing something else, that is, I notice that you have consistently given our Federal employees credit for what they do. Every time I speak before a group of Federal employees, they say that so often they hear just negative things about them. And I know that you have said it in private, and now you are saying it in public about the Secret Service, that we have a phenomenal number of great dedicated Secret Service agents. And I really appreciate that and I know they do, too.    You have sought the input from our side and our participation, and I believe our efforts will be more effective as a result of that. But more significantly, you have shown respect for us. We are holding today's hearings because the independent panel has done a thorough review of the Secret Service, and we want to hear directly from them before taking our next steps.    To the panel, I want to thank you for what you have done. You have done an outstanding job in a short period of time. They met with more than 170 people from inside and outside the Secret Service. They made numerous recommendations. And now the upper managers of the agency have been removed. The chairman and I both strongly agree that the independent panel's work was excellent.    We have also discussed the panel's classified report. We believe it was tough, it was thorough, and crucial to bringing about real change at the agency. Again, we thank all the members of the panel. But I want to make two key points today. First, I completely agree with the panel that the question of leadership is most important. Although the previous Director has left and top managers have been removed, the job is only half done. As the panel concluded, a strong group of new leaders must now be identified. And that responsibility rests with the executive branch.    Second, I also agree with the panel that these changes ``require strong leadership, but they will also require resources.'' And that is our job. That is the job of the Congress. Their report makes clear that the Secret Service is stretched too thin; the status quo in long shifts, forced overtime, inadequate training, and too little rest. I would like to read briefly from the report describing this problem. It says this: ``The strains are manifest throughout the agency. The Service has been forced to pull firearms instructors from its training academy and uniformed officers guarding foreign missions to work protective details. The attrition has caused alarm. 'It is all smoke and mirrors,' says a plain clothes agent. 'We are like a giant ship teetering on toothpicks, waiting to collapse,' says another. Our protective mission is in crisis.'' That was from a press report in 2002, more than a decade ago.    Let me read another quote: ``While the threat of terrorism looms large over the White House complex, one of the most insidious threats of our national security actually comes from within. With the creation of the Department of Homeland Security and the fallout from the Hurricane Katrina disaster, the Secret Service, overall, has suffered much in terms of budget, or perhaps more appropriately, the lack thereof. ``We were informed last year that our budget had been cut and that the Secret Service was going to have to make some changes to cut costs and save money.'' That quote was from 2007. It was from a letter sent internally to the Secret Service leadership by a former uniformed division officer, and we have obtained a copy.    Last week, the Federal Law Enforcement Officers Association wrote the committee saying this, ``A lack of resources and funding is the core reason the agency has suffered its newsworthy deficits. Its moments of honesty, even media reports, have reStated what is well-known in the Service and was highlighted by the protective mission review panel that the Secret Service has been outstretched and underfunded since the 9/11 attacks and continues to be.''    Let me make one last thing clear. I am not saying we should throw money at the problem, that more money is a silver bullet, that inadequate funding is an excuse for failure or any other similar straw-man argument.    I agree with the independent panel that the Secret Service has atrophied. It needs more funding, and it is our job in Congress to get it to them. The panel recommended as a first step adding 200 officers and 85 agents. And it said many more may be necessary once the new management team assesses the agency needs. We have heard from others inside and outside the Secret Service that they are down by at least 500 positions. The DHS funding bill would start to restore some of this funding. But unfortunately, it is being held up by our Republican friends who oppose the President's actions on immigration.    We have only 2 weeks left before the Department shuts down. If it happens, the Secret Service employees will be required to continue working without pay. This is no way to treat the Secret Service agents, officers. They should not be collateral damage in this political fight. The fact is that Federal workers across the board have been hammered over the past 4 years. They have sacrificed nearly $140 billion as a result of a 3-year pay freeze and pay cuts in the form of increased retirement contributions for newly hired employees. They have endured sequestration cuts and furloughs and the elimination of jobs for the last 3 years. It is time to recognize that these actions take a toll.    Finally, Mr. Chairman, I would like to take a moment to address our work here on the committee. I completely agree that we must reform this agency. Its mission is just too critical. I have the greatest admiration for the President, and the last thing I want is for something to happen to him or the other people that the Secret Service is responsible for protecting.    So I commit to working with you to the best of my ability and in good faith. In return, I ask that we focus aggressively on the reforms that are needed, that we avoid spending valuable time reinvestigating issues that others have already investigated, and that we continue working closely together, as we have been, to conduct our investigation in a responsible way that does no harm to the agency or the mission.    And with that I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Perrelli</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perrelli. Thank you, Mr. Chairman, Ranking Member Cummings, and members of the committee. I am Tom Perrelli, one of the members of the Secret Service Protective Mission Panel. And the panel asked me to make brief opening remarks today.    At the outset, we want to express, echoing both the chairman and the ranking member, our appreciation for the extraordinary work and dedication of the men and women of the Secret Service. They work long hours in a mission that has no tolerance for error, and they do so without desire for fame or fortune. They deserve all of our thanks and support.    The Secretary of the Department of Homeland Security asked the panel to do a review of the Secret Service's protection of the White House following the events of September 19th, 2014. We did not focus solely on that event, but looked more broadly at concerns about the Service that had been raised by this committee and others.    From October, when we were commissioned, to the issuance of our report on December 15th, the panel talked to dozens of members of the Service from all levels, as well as more than a hundred experts from the Federal Protective Services, local law enforcement, the national laboratories, and the defense and intelligence communities. We thought it was important to hear perspectives about the Service, about the protective function, about technology from both insides and outside the Service. We also reviewed thousands of pages of documents.    Our report and recommendations were completed on December 15th. The report contains substantial sensitive information, as well as classified information and recommendations. We have had the opportunity to brief the chairman and the ranking member and many staff of this and other committees in a classified setting, and we will tread carefully on subjects related to operations, tactics, and particular threats in this setting. It is in the interest of the United States that much of the Service's work be secret because they are tasked with the singularly important job of protecting the Commander in Chief, other protectees in the White House.    But we did release an unclassified summary that lays out our conclusions and recommendations in a number of areas, including training, staffing, technology, and leadership. That summary is incorporated in our written testimony to this committee. As we described in that executive summary, the panel concluded that training had fallen below acceptable levels in no small part because personnel at the Service were stretched too far. We provide recommendations about increased training as well as increased staffing. We describe our recommendation for 200 additional uniformed division officers and 85 additional special agents as a downpayment that we make now so that the Service can train and perform at the level that all of us believe is necessary.    Many of our technology recommendations are classified, but I note our concern that the Service needs to be more engaged with Federal partners who are using or developing technologies that would assist the Service in protecting the White House.    Finally, we focused a great deal of attention, as the chairman said, on leadership. Concluding that the Service needs dynamic leadership that is unafraid to make change, that clearly articulates the Service's mission, pursues resources needed to fulfill that mission, and demonstrates to the work force that rules will be applied evenhandedly, and that the best of the best will be promoted to lead the organization into the future. More detail in our conclusions and recommendations are in our testimony, and we will be happy to answer questions. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. I now recognize myself for 5 minutes. The report says, ``More resources would help but what we really need is leadership.'' In fact, you went on to say, ``Only a Director from outside, removed from the organizational traditions and personal relationships will be able to do the honest, top-to-bottom reassessment this will require.'' Maybe--I don't know who to address this to. But, yes, Mr. Filip.</t>
   </si>
   <si>
-    <t>Filip</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Filip. Yes. Thank you. We gave a lot of attention to leadership and in that we believe that will be a critical issue going forward. We fully respect that the choice of the Secret Service Director is that of the President, and there is a unique relationship there in that maybe uniquely amongst appointments in the Federal system, that individual is responsible for the personal safety of the President and the First Family. So we respect our role in that regard. But we did and do think that, all things equal, it would be useful to have outside perspectives. The reasons for that, I think, are even more important than the conclusion, because they animate a lot of our views on a number of things.    We think it is essential for reform that there be a full look at the activities of the Secret Service through the lens of the core priority of protecting the President and the White House, and that the activities and budgeting align with those core activities. We think that the innovation associated with the Secret Service's activities also be aligned with those core priorities. And that the new Director, whoever that is, is prepared to make tough choices about personnel, independent of any sort of old-boy's network or friendships or alignments. And that was part of the reason we thought, all things equal, it was easier for an outsider to make those assessments as opposed to someone who is presently with the Service.    And we also think it is important that there be engagement with the broader intelligence community and a consistent set of disciplinary rules, independent of prior friendships or allegiances or experiences. And finally, also, an infusion of outside expertise in budgetary areas, for example, human resources, congressional affairs, things of that sort. So we thought it was more likely that that person would be an outsider, but obviously we respect that it is the President's choice. And to the extent we can be a resource, whoever the next Director is, we would proudly be available to try to help them.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Ok. One last thing I want to--and I know other members want to ask about this. If you put up the slide, please, on the training. You know, one of the things that we are deeply concerned about, these are the training numbers that we see here. And if you look at from 2008 through 2013, we were doing roughly special agent basic classes, eight per year, eight--eight, eight, eight. Then we go down to five. Then we go down to zero. Then we go to one. Why--why did that happen? How do we prevent that from happening? What is your assessment of that?</t>
   </si>
   <si>
-    <t>Gray</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gray. Sure. I am happy----</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman. And you are sure getting off to a great start chairing this committee and calling all these hearings.    Let me, first of all, say that I appreciate this panel and how they have come in from the outside to take a look at this. But I do have to tell you that--sort of no criticism of each of you--but I am very skeptical about some of this, and I will tell you why. I have been here 26 years. I have served on four different committees. I have read reports from all the committees. Every time some Federal agency messes up, the first thing they say, they say they are underfunded; and the second thing they say is their technology is out of date. And they have got more money than any company in the private sector and more expensive technology than any company in the private sector. Yet they always come up with those same excuses.    In that time that I have been in Congress, when I first came here, the national debt was less than $3 trillion. Now, it is $18 trillion. The Federal budget was not anywhere close to what it is now. All of the Federal agencies--all of the Federal departments and agencies, if you looked at the last 2 or 3 or 4 years, we have been doing a better job holding funding reasonably at a level rate. But if you looked over the last 20 or 25 years, Federal spending has gone way up, and all the Federal law enforcement agencies have greatly expanded over that time, and their budgets have gone way up. I don't have the figures here. I came here a little unprepared for this hearing because I didn't know until late yesterday that we were going to have this hearing. And that is my fault. But I had the figures a few years ago that the F--5 or 6 years ago, the FBI had tripled in size over the years that I have been here in numbers of personnel and in their budgets. And I just am very skeptical that the Secret Service doesn't have enough funding.    And then, second, I remember when I first came here that I had a hearing on the Aviation Subcommittee, and one of the main things was they talked about the low morale of air traffic controllers. And that is another thing I have heard a lot of times from Federal employees about their low morale. Well, I can tell you it seems to me the less people have to do on their job, the more they complain. I almost have never gotten a complaint from a short-order cook at a Waffle House.    I can tell you that if these Secret Service people who have low morale, if they don't realize how lucky they are to have these jobs--and I have got nothing against anybody in the Secret Service. I am sure they are all nice people and all fine people. But they need to realize they are very lucky to have their jobs.    When I first ran for Congress, I had a--they had an ad signed by every member--there was 300 or 400 members of the Knoxville Police Department. Every one except seven signed an ad endorsing me. I was a criminal court judge. I was considered very pro law enforcement. But I will tell you that our Federal law enforcement people are our highest paid law enforcement people in this country. Next are State. And our lowest paid people are the local law enforcement people who are out there fighting the real crime, the daily--the day-to-day that everybody wants to fight. But I will tell you that when I hear about low morale in the Secret Service, I think they ought to be ashamed, anybody who feels that way, because they are very lucky to have their job and the high pay that they get.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
@@ -178,15 +160,9 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman. I think we are very fortunate to have the Secret Service take the risks they take. And when it comes to their pay, these are the people who have suffered sequester and have not received increases in pay. So we value them very highly, and we value your report, which is very thoughtful. I have been concerned, by the way, with the really quite shocking underfunding of the Secret Service, something I think that would shock the American people, because they always assumed that the protection for the American people was a first priority because it is a symbol of the United States itself.    I was concerned about the physical barriers because that is the most obvious and commonsense way to approach this problem. And I have distributed to the members and to you a copy of a picture that was taken outside right after--right after the most notorious of the fence jumping incidents. And I am asking this question because you indicate that there are some physical barriers that have been added. Are you talking about these barriers that are normally used simply for crowd control, or are we talking about actual structural physical barriers?</t>
   </si>
   <si>
-    <t>Hagin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hagin. That we recommend adding?</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gosar. Thank you, Mr. Chairman. And thank you, panel, for the report.    I want to quote a couple of snippets here--four snippets and kind of make a summary and then ask some questions for that, if that is OK.    The first one: ``The Secret Service is stretched too, and in many cases, beyond its limits. Special agents and uniform division personnel protecting the White House work an unsustainable number of hours.''    Second snippet: ``Rather than invest in systems to manage the organization more effectively and accurately predict its need, the Service simply adds more overtime for existing personnel.''    Third snippet: It goes on to say that, ``The Secret Service needs more agents and officers, even beyond the levels required to allow for in-service training. The President and other protectees cannot receive the best possible protection when agents and officers are deployed for longer and longer hours or fewer and fewer days off.''    Number 4: ``The Service has to increase the number of agents and, to an even greater extent, increase the size of the uniform division to ensure protection of the White House.''    Now, I understand uniform division officers told the panel that they do not know whether they are working 1 day to the next or if they are even required to work overtime. The staffing failures within the uniform division are so bad that the special agents are flown in from field offices around the country to detail them for week-long shifts to the White House, supplementing the uniform division due to the dramatic losses in staffing it has seen. These are agents--result in special agents who are unfamiliar with the White House complex being in charge or defending it.    So my question is: Given this report found that the special agents and uniform division officers work an unsustainable and unpredictable number of hours, what must the Service do better to manage that workload?</t>
   </si>
   <si>
@@ -271,9 +244,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Mr. Chairman. Good morning to you. And thank you so very much for the work that you have done. I did take the opportunity to read the briefing that I had last night, and it was quite extensive and a little bit scary.    For the record, I just want to ask a question. Is this a part of the fence that was compromised? For the life of me, I can't see how you scale a fence that is skinny like this and this long. Will you----</t>
   </si>
   <si>
@@ -349,9 +319,6 @@
     <t>412477</t>
   </si>
   <si>
-    <t>Scott DesJarlais</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DesJarlais. Thank you, Mr. Chairman.    Just a followup on a question that Mr. Walberg had asked. And whoever wants to take this question, feel free. How many new hire training classes do the Secret Service have funding for each year?</t>
   </si>
   <si>
@@ -415,9 +382,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you. After today's hearing, my desire is that there will no longer be any legitimate doubt that the Secret Service needs more resources critical to the mission that you perform. And I join with the ranking chair and the chairman of recognizing how important you are and the service that you give. But we clearly know that there is areas of concern. And I feel strongly that the option of continuing the way we have in the past does not exist. And it will not be something that will be tolerated.    I wanted to give you a quote that I would like to be addressed. The ranking member of the Committee on Homeland Security, Congressman Thompson, he Stated: ``Within the next 5 years, the Secret Service will provide protection through two Presidential election cycles, two Democratic national conventions, two Republican national conventions, the 75th anniversary of the United Nations, and other National Security special events.'' To his point, on top of your current responsibilities of protecting the President and protecting your area of responsibility, and we know that there is some problems with leadership resources, we are also entering a period where there is going to be additional demand. My background is in HR. And I know that when you start hiring and training, there is a gap in your resources. So we have to be realistic about that. For us to get where we need to be, we are going to have to pull resources that we already have. Do you agree with that?</t>
   </si>
   <si>
@@ -448,9 +412,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank each of you for your work, for your recommendations. Ms. Gray, I want to come to you first. I have received a number of phone calls from agents, male, female, all over the country. They have actually gotten ahold of a Member of Congress, talked to me. Any time I get a blocked number, I know it is them. My concern is is that it sounds like there is a culture of fear within the rank and file. Would you agree with that assessment having talked to so many people?</t>
   </si>
   <si>
@@ -505,9 +466,6 @@
     <t>412616</t>
   </si>
   <si>
-    <t>Ted Lieu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you, Mr. Chair.</t>
   </si>
   <si>
@@ -541,9 +499,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Will my friend yield? My friend here, would you yield?</t>
   </si>
   <si>
@@ -565,9 +520,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman. And thank for leading the mission over the Secret Service this morning. It was good to see that. I will just comment on the State of the DHS bill in the Senate. What you have is a minority of Senators taking a position that they will not even allow that bill to be debated, no debate at all, unless the President is allowed to issue 5 million work permits and Social Security numbers to people who are in the country illegally, which is, of course, contrary to statute and something he said he could not do previously.    So to me, I think that is absolutely irresponsible that you won't even have this debate. This is a critical constitutional issue. And I think the country deserves better. And so a ``clean bill'' would not include any funding for this radical policy change. A clean bill would just focus on funding the core functions of DHS that they had traditionally done, without this new policy that the President unilaterally implemented. Let me ask you this: This is probably outside of what you guys were tasked with doing, but Mr. Filip, I will just ask you to start, how has, becausesome of the problems I think that you identified are great, need more leadership, better administrative capacities, too much insularity, people have commented about the low morale. So how has the transition of the Secret Service from Treasury to DHS, I know it has been 12 years, 13 years now, having it be in a bigger bureaucracy with more red tape, to me that would exacerbate these problems. Can you comment on whether the Secret Service is better served having been in DHS?</t>
   </si>
   <si>
@@ -667,9 +619,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. And thank you to the panel. Your report noted that there was a common critique that you heard, that the service was too insular. What are the areas of greatest concern in which the agency needs to improve?</t>
   </si>
   <si>
@@ -715,9 +664,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman, and ranking member for holding this hearing on really a critical issue, the security of the leaders of our country. It is incredibly important. And I thank all the panelists for being here today and all your hard work. You would not have to be a security or a law enforcement professional to recognize that there are some very serious problems with your department, with the United States Secret Service. You would just have to read a newspaper or have some common sense to see that you are an agency in deep trouble. The repeated headlines about tawdry scandals with prostitutes, and Secret Service professionals, the horrendous lapses of judgment and high-profile breaches of security, including breaking into the President of the United States' home.    All these examples make it clear that something is seriously wrong in the culture and in the management of the Secret Service. In any organization, it is not fair to assume that the bad behavior of a few is representative of the many. But we also understand that this is not just any organization, this is the United States Secret Service. It used to be one of the most respected agencies in our government. And you are tasked with some of the most critical law enforcement missions in our country. Among them, and first and foremost, is protecting the President of the United States, the Commander in Chief, and the leader of the free world. There is no margin for error in your job. There is no slack to be granted. And there is absolutely no possibilities for do-overs.    So far more important today than just fixing the blame and talking about all of these reports is fixing the problem. Now, the question that I hear from my constituents is how in the world did someone jump over the fence, break into the White House, roam around the home where our President sleeps and roam around rooms where his children play, how in the world did that happen? I don't want to know specifics. I just want to know in an overall Statement, can we go to bed tonight and feel that the Secret Service is going to protect the President of the United States? I am going to ask Ms. Gray.</t>
   </si>
   <si>
@@ -736,9 +682,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman. Thank you, panel, for being here today. I want to talk about what appears to be the No. 1 glaring concern with the fence jumper. But I also want to talk about that from a budget perspective. So let me make sure that I am clear on this. In your opinion, the fence breach was caused because of insufficient training, is that correct?</t>
   </si>
   <si>
@@ -790,9 +733,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman. And thank you to the panel for showing up. One question that I had that I am still, frankly, trying to wrap my mind around in relation to what you were just referring to, the panel found that the Secret Service does not have in place a system budgetarily in order to even make the most prudent budget decisions. And yet, at the same time, we are saying we need to provide more resources. So I am trying to wrap my mind around this whole understanding of how can we say conclusively that more resources are needed when we are, likewise, admitting that they don't have a system of tracking the budget that they have, they don't even know how to manage and spend the money that they are already receiving. So can you just clarify that?</t>
   </si>
   <si>
@@ -826,9 +766,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. I appreciate all the hard work that the panel has done. And I think it is a tough task that you have dug into in a great bipartisan fashion. My questions will focus specifically on the training aspects, because I think that is what is crucial ultimately in getting the job done. If the personnel currently are too deployed to train, how will the additional uniformed and other agents be trained?</t>
   </si>
   <si>
@@ -886,9 +823,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. And thank all of you for being here. And thank you for what you do. And this is helping us out tremendously. So we appreciate your efforts in this. I want to concentrate just for a couple minutes on staffing because I am concerned here. Can you tell me how we are doing as far as new recruits go and are we getting new recruits in?</t>
   </si>
   <si>
@@ -934,9 +868,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman. I want to thank you for your consistently hard work on this issue while you have been the chairman and even before that when you were on the committee.    I will throw this question to any of the four panelists who can answer it. Explain to me, picking up on Mr. Connolly's question, how working counterfeit currency prepares you for personal protection.</t>
   </si>
   <si>
@@ -976,9 +907,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    And Ms. Gray, you mentioned the excessive amounts of overtime. And it has been mentioned several times in this hearing. Do you have an idea of how many overtime hours have been worked annually?</t>
   </si>
   <si>
@@ -1016,9 +944,6 @@
   </si>
   <si>
     <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you very much.</t>
@@ -1570,11 +1495,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1594,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1622,11 +1543,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1646,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1674,11 +1591,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1700,11 +1615,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1724,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1752,11 +1663,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1776,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1804,11 +1711,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1828,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1856,11 +1759,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1880,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1908,11 +1807,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1932,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1960,11 +1855,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1984,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2012,11 +1903,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2036,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2062,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2088,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2114,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2140,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2166,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2192,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2218,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2244,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2270,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2296,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2324,11 +2191,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2348,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2376,11 +2239,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2400,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2426,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2452,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2478,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2504,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2530,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2556,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2582,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2608,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2634,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2660,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2688,11 +2527,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2712,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2738,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2764,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2792,11 +2623,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2816,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2842,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2868,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2894,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2920,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2946,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2972,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2998,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3024,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="H58" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3052,11 +2863,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3076,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3102,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3128,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3154,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3180,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3206,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3232,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3258,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3284,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3310,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3336,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3362,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3388,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3414,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3440,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3466,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3492,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3518,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3544,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3570,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3596,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3622,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3648,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3676,11 +3439,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3700,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>110</v>
-      </c>
-      <c r="G84" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3726,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3752,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
-      </c>
-      <c r="G86" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3778,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3804,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
-      </c>
-      <c r="G88" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3830,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3856,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
-      </c>
-      <c r="G90" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3882,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3908,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
-      </c>
-      <c r="G92" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3934,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3960,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
-      </c>
-      <c r="G94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>111</v>
-      </c>
-      <c r="H94" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3986,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4012,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
-      </c>
-      <c r="G96" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4038,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4064,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4090,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4116,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>110</v>
-      </c>
-      <c r="G100" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4142,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4168,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G102" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4196,11 +3919,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4220,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4246,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4272,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
-      </c>
-      <c r="G106" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4298,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4324,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4350,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4376,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G110" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4402,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4430,11 +4135,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4454,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
-      </c>
-      <c r="G113" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4480,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4506,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
-      </c>
-      <c r="G115" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4532,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4558,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>143</v>
-      </c>
-      <c r="G117" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4584,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4610,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>143</v>
-      </c>
-      <c r="G119" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4636,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4662,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
-      </c>
-      <c r="G121" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4688,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4714,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>143</v>
-      </c>
-      <c r="G123" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4740,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4766,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
-      </c>
-      <c r="G125" t="s">
+        <v>131</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>144</v>
-      </c>
-      <c r="H125" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4792,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4818,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4844,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4872,11 +4543,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4896,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>162</v>
-      </c>
-      <c r="G130" t="s">
-        <v>163</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4924,11 +4591,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4948,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>162</v>
-      </c>
-      <c r="G132" t="s">
-        <v>163</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4974,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5000,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>162</v>
-      </c>
-      <c r="G134" t="s">
-        <v>163</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5026,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5052,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>162</v>
-      </c>
-      <c r="G136" t="s">
-        <v>163</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5078,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5104,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>162</v>
-      </c>
-      <c r="G138" t="s">
-        <v>163</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5132,11 +4783,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5156,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>162</v>
-      </c>
-      <c r="G140" t="s">
-        <v>163</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5182,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>174</v>
-      </c>
-      <c r="G141" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5208,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
+        <v>149</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
         <v>162</v>
-      </c>
-      <c r="G142" t="s">
-        <v>163</v>
-      </c>
-      <c r="H142" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5234,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>174</v>
-      </c>
-      <c r="G143" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5260,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5286,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>174</v>
-      </c>
-      <c r="G145" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5314,11 +4951,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5338,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>182</v>
-      </c>
-      <c r="G147" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5364,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5390,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>182</v>
-      </c>
-      <c r="G149" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5416,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5442,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>182</v>
-      </c>
-      <c r="G151" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5468,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5494,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>182</v>
-      </c>
-      <c r="G153" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5520,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5546,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>182</v>
-      </c>
-      <c r="G155" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5572,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5598,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>182</v>
-      </c>
-      <c r="G157" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5624,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5650,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>182</v>
-      </c>
-      <c r="G159" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5676,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5702,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5728,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5754,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>182</v>
-      </c>
-      <c r="G163" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5782,11 +5383,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5806,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>174</v>
-      </c>
-      <c r="G165" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5832,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5858,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5884,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>174</v>
-      </c>
-      <c r="G168" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5912,11 +5503,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5936,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>174</v>
-      </c>
-      <c r="G170" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5964,11 +5551,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5988,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>174</v>
-      </c>
-      <c r="G172" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6016,11 +5599,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6040,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>174</v>
-      </c>
-      <c r="G174" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6066,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6094,11 +5671,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6118,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6146,11 +5719,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6170,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>216</v>
-      </c>
-      <c r="G179" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6196,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6222,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>216</v>
-      </c>
-      <c r="G181" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6248,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6274,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>216</v>
-      </c>
-      <c r="G183" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6300,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6326,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>216</v>
-      </c>
-      <c r="G185" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6352,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6378,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>216</v>
-      </c>
-      <c r="G187" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6404,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6430,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>216</v>
-      </c>
-      <c r="G189" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6456,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6482,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>216</v>
-      </c>
-      <c r="G191" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6510,11 +6055,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6534,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>232</v>
-      </c>
-      <c r="G193" t="s">
-        <v>233</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6560,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6586,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>232</v>
-      </c>
-      <c r="G195" t="s">
-        <v>233</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6612,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6640,11 +6175,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6664,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>239</v>
-      </c>
-      <c r="G198" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6690,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6716,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>239</v>
-      </c>
-      <c r="G200" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6742,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6768,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>239</v>
-      </c>
-      <c r="G202" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6794,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6820,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>239</v>
-      </c>
-      <c r="G204" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6846,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6872,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>239</v>
-      </c>
-      <c r="G206" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6898,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6924,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>239</v>
-      </c>
-      <c r="G208" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6950,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6976,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>239</v>
-      </c>
-      <c r="G210" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7002,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7028,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>239</v>
-      </c>
-      <c r="G212" t="s">
-        <v>240</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7056,11 +6559,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7080,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>257</v>
-      </c>
-      <c r="G214" t="s">
-        <v>258</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7106,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7132,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>257</v>
-      </c>
-      <c r="G216" t="s">
-        <v>258</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7158,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7184,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>257</v>
-      </c>
-      <c r="G218" t="s">
-        <v>258</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7210,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7236,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>257</v>
-      </c>
-      <c r="G220" t="s">
-        <v>258</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7262,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7288,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>257</v>
-      </c>
-      <c r="G222" t="s">
-        <v>258</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7316,11 +6799,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7340,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>269</v>
-      </c>
-      <c r="G224" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7366,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7392,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>269</v>
-      </c>
-      <c r="G226" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7418,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7444,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>269</v>
-      </c>
-      <c r="G228" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7470,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7496,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>269</v>
-      </c>
-      <c r="G230" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7522,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7548,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>269</v>
-      </c>
-      <c r="G232" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7574,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7600,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>269</v>
-      </c>
-      <c r="G234" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7626,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7652,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>269</v>
-      </c>
-      <c r="G236" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7678,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7704,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7730,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>269</v>
-      </c>
-      <c r="G239" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7756,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7782,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>269</v>
-      </c>
-      <c r="G241" t="s">
-        <v>270</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7810,11 +7255,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7834,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>289</v>
-      </c>
-      <c r="G243" t="s">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7860,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7886,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>289</v>
-      </c>
-      <c r="G245" t="s">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7912,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>18</v>
-      </c>
-      <c r="G246" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7938,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>289</v>
-      </c>
-      <c r="G247" t="s">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7964,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7990,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>289</v>
-      </c>
-      <c r="G249" t="s">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8016,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8042,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>289</v>
-      </c>
-      <c r="G251" t="s">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8068,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8094,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>289</v>
-      </c>
-      <c r="G253" t="s">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8120,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>18</v>
-      </c>
-      <c r="G254" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8146,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>289</v>
-      </c>
-      <c r="G255" t="s">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8174,11 +7591,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8198,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>305</v>
-      </c>
-      <c r="G257" t="s">
-        <v>306</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8224,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8250,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>305</v>
-      </c>
-      <c r="G259" t="s">
-        <v>306</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8276,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>18</v>
-      </c>
-      <c r="G260" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8302,13 +7709,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>305</v>
-      </c>
-      <c r="G261" t="s">
-        <v>306</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8328,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>18</v>
-      </c>
-      <c r="G262" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8354,13 +7757,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>305</v>
-      </c>
-      <c r="G263" t="s">
-        <v>306</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8380,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8406,13 +7805,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>305</v>
-      </c>
-      <c r="G265" t="s">
-        <v>306</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8432,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>18</v>
-      </c>
-      <c r="G266" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8458,13 +7853,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>305</v>
-      </c>
-      <c r="G267" t="s">
-        <v>306</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8486,11 +7879,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8510,13 +7901,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>319</v>
-      </c>
-      <c r="G269" t="s">
-        <v>320</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8536,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>18</v>
-      </c>
-      <c r="G270" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8562,13 +7949,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>319</v>
-      </c>
-      <c r="G271" t="s">
-        <v>320</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8588,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
-      </c>
-      <c r="G272" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8614,13 +7997,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>319</v>
-      </c>
-      <c r="G273" t="s">
-        <v>320</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8640,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8666,13 +8045,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>319</v>
-      </c>
-      <c r="G275" t="s">
-        <v>320</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8692,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8718,13 +8093,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>319</v>
-      </c>
-      <c r="G277" t="s">
-        <v>320</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8744,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8770,13 +8141,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>319</v>
-      </c>
-      <c r="G279" t="s">
-        <v>320</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8798,11 +8167,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8822,13 +8189,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>333</v>
-      </c>
-      <c r="G281" t="s">
-        <v>334</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8850,11 +8215,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8874,13 +8237,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>333</v>
-      </c>
-      <c r="G283" t="s">
-        <v>334</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8900,13 +8261,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>18</v>
-      </c>
-      <c r="G284" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8926,13 +8285,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>18</v>
-      </c>
-      <c r="G285" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8952,13 +8309,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>18</v>
-      </c>
-      <c r="G286" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8978,13 +8333,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>18</v>
-      </c>
-      <c r="G287" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9004,13 +8357,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>333</v>
-      </c>
-      <c r="G288" t="s">
-        <v>334</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9030,13 +8381,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>18</v>
-      </c>
-      <c r="G289" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9056,13 +8405,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>333</v>
-      </c>
-      <c r="G290" t="s">
-        <v>334</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9082,13 +8429,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>18</v>
-      </c>
-      <c r="G291" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9108,13 +8453,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>333</v>
-      </c>
-      <c r="G292" t="s">
-        <v>334</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9134,13 +8477,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9160,13 +8501,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>333</v>
-      </c>
-      <c r="G294" t="s">
-        <v>334</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9188,11 +8527,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9212,13 +8549,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>14</v>
-      </c>
-      <c r="G296" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9238,13 +8573,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9264,13 +8597,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>18</v>
-      </c>
-      <c r="G298" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9290,13 +8621,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>18</v>
-      </c>
-      <c r="G299" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9316,13 +8645,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9342,13 +8669,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>18</v>
-      </c>
-      <c r="G301" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9368,13 +8693,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>14</v>
-      </c>
-      <c r="G302" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9396,11 +8719,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9420,13 +8741,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>18</v>
-      </c>
-      <c r="G304" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9448,11 +8767,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9472,13 +8789,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>18</v>
-      </c>
-      <c r="G306" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9500,11 +8815,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9524,13 +8837,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>18</v>
-      </c>
-      <c r="G308" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9552,11 +8863,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9576,13 +8885,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>18</v>
-      </c>
-      <c r="G310" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9604,11 +8911,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9628,13 +8933,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>18</v>
-      </c>
-      <c r="G312" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9656,11 +8959,9 @@
       <c r="F313" t="s">
         <v>11</v>
       </c>
-      <c r="G313" t="s">
-        <v>12</v>
-      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9680,13 +8981,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>18</v>
-      </c>
-      <c r="G314" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9708,11 +9007,9 @@
       <c r="F315" t="s">
         <v>11</v>
       </c>
-      <c r="G315" t="s">
-        <v>12</v>
-      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9732,13 +9029,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>18</v>
-      </c>
-      <c r="G316" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9760,11 +9055,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9784,13 +9077,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>18</v>
-      </c>
-      <c r="G318" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9812,11 +9103,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>12</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9836,13 +9125,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>18</v>
-      </c>
-      <c r="G320" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9864,11 +9151,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9888,13 +9173,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>18</v>
-      </c>
-      <c r="G322" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9916,11 +9199,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9940,13 +9221,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>18</v>
-      </c>
-      <c r="G324" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9968,11 +9247,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9992,13 +9269,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10018,13 +9293,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>18</v>
-      </c>
-      <c r="G327" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10044,13 +9317,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>14</v>
-      </c>
-      <c r="G328" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10070,13 +9341,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>18</v>
-      </c>
-      <c r="G329" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10096,13 +9365,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10122,13 +9389,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>18</v>
-      </c>
-      <c r="G331" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10148,13 +9413,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10174,13 +9437,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>18</v>
-      </c>
-      <c r="G333" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10200,13 +9461,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10228,11 +9487,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
